--- a/data/genius_Bushido_King-of-kingz.xlsx
+++ b/data/genius_Bushido_King-of-kingz.xlsx
@@ -407,7 +407,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fühl den Beat schau in mein HerzMorgen Tränen heute SchmerzDas ist die Antwort auf eure FragenViele sagen Sonny Black kenn' ich nichtSonny Black burnt mich nichtGlaubt nicht dass du wichtig bistSonny Black fickt auf dich, yeahGespaltene Zungen umgeben mich wie der WindDoch ich bleibe wie ich bin, Bushido, King of KingzDeine Versuche zu biten enden kläglich in der Leere sag ich lügeMir egal ich erzähle nur was ich fühleMein Tape fickt alles warum willst du es nicht einsehen?Du bist neidisch und behauptest Zwölf plus Eins wäre nicht DreizehnLangsam wird’s peinlich du Nutte ein Rap, ein Mann und ein BeatMehr brauch ich nicht komm zu mir und hol dir deinen KriegWas will ein Untergrund machen, gegen einen Rap-Kanaken?Fick auf dein "Keep It Real"BMW, Men of SteelSüd-Berlin, TempelhofDer Bezirk wo ein Mann noch hart istDie Wahrheit ist dunkel, weil meine Seite schwarz ist</t>
+          <t>Fühl den Beat schau in mein Herz
+Morgen Tränen heute Schmerz
+Das ist die Antwort auf eure Fragen
+Viele sagen Sonny Black kenn' ich nicht
+Sonny Black burnt mich nicht
+Glaubt nicht dass du wichtig bist
+Sonny Black fickt auf dich, yeah
+Gespaltene Zungen umgeben mich wie der Wind
+Doch ich bleibe wie ich bin, Bushido, King of Kingz
+Deine Versuche zu biten enden kläglich in der Leere sag ich lüge
+Mir egal ich erzähle nur was ich fühle
+Mein Tape fickt alles warum willst du es nicht einsehen?
+Du bist neidisch und behauptest Zwölf plus Eins wäre nicht Dreizehn
+Langsam wird’s peinlich du Nutte ein Rap, ein Mann und ein Beat
+Mehr brauch ich nicht komm zu mir und hol dir deinen Krieg
+Was will ein Untergrund machen, gegen einen Rap-Kanaken?
+Fick auf dein "Keep It Real"
+BMW, Men of Steel
+Süd-Berlin, Tempelhof
+Der Bezirk wo ein Mann noch hart ist
+Die Wahrheit ist dunkel, weil meine Seite schwarz ist</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -451,8 +471,67 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Verse I]Da wo ich lebe tragen die Rapper SilberkettenStecken Hosen in die Socken, ziehen Messer um zu battlenDenken mit Händen und halten Pitbulls ohne LeineMeine Reime sind Eisenstangen und brechen deine BeineDu bist blond und redest über Rap wie ein NiggerSonny Black, Kinderficker aka tötet DiggerIch zerkoche Reime wie Steine aus KokainWir beide haben nichts gemeinsamIch will Geld, du willst frei seinIch bin hinterhältig und ertränk dich bei der TaufeMeine Haare und mein Herz sind schwarzIch klaue was ich braucheFrank White, Bushido, die Gang, I Luv MoneyHaltet alle zusammen und trotzdem fick ich deine Mami, yo[Hook 2x]King of KingzDu bist Hofnarr in meinem HofstaatDas Mic mein Excalibur, ich bin King aller EpochenAlle Anderen fallen nur, wie Sand in einer SanduhrMein Zepter wird euch zerschlagen und eures wird gebrochen[Verse II]Du willst Community - Keep it real, du MissgeburtÜb dein Freestyle Fake. Check das Mic, rap' dich totIch bin das Gegenteil von deiner, "Ich-Rap-Deutsch-Idee"Und trotzdem vertick ich Tapes, wie mein Onkel braunen SchneeIch drück dir Flows in die Venen und schau dir zu beim zappelnWas wollt ihr machen mit 30179 Tru KanakenDe La Mok, Sonny Black, Heavy Metal, BMWDer Rest kann wichsen. Komm und nenn' mich Freddy BattleVollautomatisch, Bushido, AntibotanischGedanken fließen durch Drähte, der Rest ist Vollwert Organisch und ihr seid garnichtsKomm und ich beiß dir in die KehleIch bin alles, was jede von euch Nutten so gerne wäre
-[Hook 2x][Verse III]Zeilen die ich schreibe, Momente und AugenblickeHänge im Studio und rappe. Bange im Studio und nickeGanz egal was ich auch mache - King bleibt KingHäng die Krone an den Haken und steig mit mir in den RingVollkontakt. Mann gegen Mann. Köpfe die ich köpfeMein täglich Brot ist die Quelle die ich schöpfeRapper laufen auf Scherben und schreien, das sie's schaffenDoch warum steh ich daneben und verkneife mir das LachenIch werd nicht mit euch teilen, ich hole mir das größte StückDränge dich nach vorne, ich hole dich wieder zurückWas hast du von den 10 Jahren, die du jetzt schon dabei bistZeit ist relativ. Das Leben zu kurz, der Weg zu langFang an. Bite und schwör' mir auf deine MutterIch entscheide über Leben - Daumen hoch, Daumen runter?Er bleibt untenJetzt bist du Futter für meine TigerIch begrab dich in der Wüste, wir sehen uns nie wiederIch schick dir schwarze Wolken und Blitze die dich begleitenGeier kreisen am Himmel und warten drauf dich zu zerfleischenBete zu Hip Hop und hoffe das er dich erhörtDu bist Teil der Community. Zeig mir einen Rap der burntSonny Black, ich bin cool pur. Schreibe nur aus einem GrundBleibe schwarz/weiß, denn das Leben ist nicht buntDu kannst glauben zu wissen am Ende liegt das ZielDu bist eine Nutte - Keep it real</t>
+          <t>[Verse I]
+Da wo ich lebe tragen die Rapper Silberketten
+Stecken Hosen in die Socken, ziehen Messer um zu battlen
+Denken mit Händen und halten Pitbulls ohne Leine
+Meine Reime sind Eisenstangen und brechen deine Beine
+Du bist blond und redest über Rap wie ein Nigger
+Sonny Black, Kinderficker aka tötet Digger
+Ich zerkoche Reime wie Steine aus Kokain
+Wir beide haben nichts gemeinsam
+Ich will Geld, du willst frei sein
+Ich bin hinterhältig und ertränk dich bei der Taufe
+Meine Haare und mein Herz sind schwarz
+Ich klaue was ich brauche
+Frank White, Bushido, die Gang, I Luv Money
+Haltet alle zusammen und trotzdem fick ich deine Mami, yo
+[Hook 2x]
+King of Kingz
+Du bist Hofnarr in meinem Hofstaat
+Das Mic mein Excalibur, ich bin King aller Epochen
+Alle Anderen fallen nur, wie Sand in einer Sanduhr
+Mein Zepter wird euch zerschlagen und eures wird gebrochen
+[Verse II]
+Du willst Community - Keep it real, du Missgeburt
+Üb dein Freestyle Fake. Check das Mic, rap' dich tot
+Ich bin das Gegenteil von deiner, "Ich-Rap-Deutsch-Idee"
+Und trotzdem vertick ich Tapes, wie mein Onkel braunen Schnee
+Ich drück dir Flows in die Venen und schau dir zu beim zappeln
+Was wollt ihr machen mit 30179 Tru Kanaken
+De La Mok, Sonny Black, Heavy Metal, BMW
+Der Rest kann wichsen. Komm und nenn' mich Freddy Battle
+Vollautomatisch, Bushido, Antibotanisch
+Gedanken fließen durch Drähte, der Rest ist Vollwert Organisch und ihr seid garnichts
+Komm und ich beiß dir in die Kehle
+Ich bin alles, was jede von euch Nutten so gerne wäre
+[Hook 2x]
+[Verse III]
+Zeilen die ich schreibe, Momente und Augenblicke
+Hänge im Studio und rappe. Bange im Studio und nicke
+Ganz egal was ich auch mache - King bleibt King
+Häng die Krone an den Haken und steig mit mir in den Ring
+Vollkontakt. Mann gegen Mann. Köpfe die ich köpfe
+Mein täglich Brot ist die Quelle die ich schöpfe
+Rapper laufen auf Scherben und schreien, das sie's schaffen
+Doch warum steh ich daneben und verkneife mir das Lachen
+Ich werd nicht mit euch teilen, ich hole mir das größte Stück
+Dränge dich nach vorne, ich hole dich wieder zurück
+Was hast du von den 10 Jahren, die du jetzt schon dabei bist
+Zeit ist relativ. Das Leben zu kurz, der Weg zu lang
+Fang an. Bite und schwör' mir auf deine Mutter
+Ich entscheide über Leben - Daumen hoch, Daumen runter?
+Er bleibt unten
+Jetzt bist du Futter für meine Tiger
+Ich begrab dich in der Wüste, wir sehen uns nie wieder
+Ich schick dir schwarze Wolken und Blitze die dich begleiten
+Geier kreisen am Himmel und warten drauf dich zu zerfleischen
+Bete zu Hip Hop und hoffe das er dich erhört
+Du bist Teil der Community. Zeig mir einen Rap der burnt
+Sonny Black, ich bin cool pur. Schreibe nur aus einem Grund
+Bleibe schwarz/weiß, denn das Leben ist nicht bunt
+Du kannst glauben zu wissen am Ende liegt das Ziel
+Du bist eine Nutte - Keep it real</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -496,8 +575,72 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Part I - Kam One:]Ich ficke ich ficke ich ficke ich fickeDeine gefickte Mutter mit meinem Negerpenis in EkstaseKeine Frage du Sau blase mein NameKam Massenmörder unterwegs mit BierfahneIch plane Morde und Vergewaltigungen mit Becks und GrasSpürst du mein Messer das war'sFriede sei mit Dir Stinktier Ka m Kampfhund am MikrofonHurensohn am Boden kampftechnisch Biss in den HodenManche biten meinen Shit manche ins GrasKaliber 22 bis 45 Du bist der King ich stürz DichSchicke deine Queen auf den StrichBetonbuschgorilla gegen Zirkusaffen das kann ja nicht klappenGroße Klappe kein Klapmesser Klappmesser klappt besserIch schieße auf Messerstresser noch besserKam MAssenmörder Kam MesserstecherKam Mutterficker eins zwei. Kam Macho Kam motherfucking One Schlampe[Hook:]Superheroez Buschgorilla gegen Zirkusaffen das kann ja nicht klappenSuperheroez und ich sehe die meisten scheißen aufs LebenSie würden alles aufgeben ich lebe nicht für Hip HopSuperheroez ich bin titanisch nordafrikanisch Battle catMeine Punches Einschusslöcher King of Kingz Sonny Black. Superheroez[Part II - Joka:]Ich sehe ich sehe ich sehe ich sehe ich seheIch sehe alle wollen sie den und meine dogz bellen am MikrofonMan dass Dein Kopf verdrehtUnd dieser planet und fahren mit BMWUnd Kam my man mit Giegel und jigga Bushido in diesem RapgameUnd ich sehe die meisten scheißen aufs LebenSie würden alles aufgeben ich lebe nicht für Hip HopSag was kann ich Dir geben man ich will gar nichts von dirDoch du möchtest mein Leben ah-ahDas würdest du nicht überlebenIch seh die Farben zu Narben werden wie Köpfe absterben wie sich Leute beschwerenDoch was ich sehe ich hab zu weit gesehen genug gesehenDoch wenn ich hingucke sehe ich Leute die Musik machenLeute die über sie lachen und Leute wie wir die so was schon bedachtenUnd am Mikrofon mal als letztes lachen
-[Hook:]Superheroez Buschgorilla gegen Zirkusaffen das kann ja nicht klappenSuperheroez und ich sehe die meisten scheißen aufs LebenSie würden alles aufgeben ich lebe nicht für Hip HopSuperheroez ich bin titanisch nordafrikanisch Battle catMeine Punches Einschusslöcher King of Kingz Sonny Black. Superheroez[Part III - Bushido:]Wenn ich bounce regnet es Feuer vom HimmelIch verschmelze mit dem Schatten beobachte und killeDu trägst Camouflage-Tarnung und denkst Du könntest mich beißenWirf Deine Seile ich ziehe einmal und sie reißenDu bunkerst Dich in Hecken schießt auf mich Du willst mein LebenSchick mir deine Sniper-bullets ich fang sie mit meinen ZähnenIch bin titanisch nordafrikanisch Battle-CatMeine Punches Einschusslöcher King Of Kingz Sonny BlackBpm sind Nutten gib mir Tempo SuperheroeIch presse meine Gedanken und verkaufe sie als KiloSchau mich an siehst Du wie ich Deine Angst inhaliereDu ziehst Mic ich das Messer und steche es dir in die NiereMeine Raps fließen rot auf den Boden auf dem ich steheLeute wie Dich halte ich im Keller Luft für deine VeneDeine Eltern sind Geschwister Du der Vater deiner SchwesterKomm lass uns sprechen doch merke ich rede mit MesserNoch einmal meine Punches treffen immer das SchwarzeMeine Fans sind Sado-Maso mit Ketten durch ihre WarzeIch sponsor Deinen Sarg meine Banger feiern BegräbnisDu wolltest nicht auf mich hören biten geht nicht</t>
+          <t>[Part I - Kam One:]
+Ich ficke ich ficke ich ficke ich ficke
+Deine gefickte Mutter mit meinem Negerpenis in Ekstase
+Keine Frage du Sau blase mein Name
+Kam Massenmörder unterwegs mit Bierfahne
+Ich plane Morde und Vergewaltigungen mit Becks und Gras
+Spürst du mein Messer das war's
+Friede sei mit Dir Stinktier Ka m Kampfhund am Mikrofon
+Hurensohn am Boden kampftechnisch Biss in den Hoden
+Manche biten meinen Shit manche ins Gras
+Kaliber 22 bis 45 Du bist der King ich stürz Dich
+Schicke deine Queen auf den Strich
+Betonbuschgorilla gegen Zirkusaffen das kann ja nicht klappen
+Große Klappe kein Klapmesser Klappmesser klappt besser
+Ich schieße auf Messerstresser noch besser
+Kam MAssenmörder Kam Messerstecher
+Kam Mutterficker eins zwei. Kam Macho Kam motherfucking One Schlampe
+[Hook:]
+Superheroez Buschgorilla gegen Zirkusaffen das kann ja nicht klappen
+Superheroez und ich sehe die meisten scheißen aufs Leben
+Sie würden alles aufgeben ich lebe nicht für Hip Hop
+Superheroez ich bin titanisch nordafrikanisch Battle cat
+Meine Punches Einschusslöcher King of Kingz Sonny Black. Superheroez
+[Part II - Joka:]
+Ich sehe ich sehe ich sehe ich sehe ich sehe
+Ich sehe alle wollen sie den und meine dogz bellen am Mikrofon
+Man dass Dein Kopf verdreht
+Und dieser planet und fahren mit BMW
+Und Kam my man mit Giegel und jigga Bushido in diesem Rapgame
+Und ich sehe die meisten scheißen aufs Leben
+Sie würden alles aufgeben ich lebe nicht für Hip Hop
+Sag was kann ich Dir geben man ich will gar nichts von dir
+Doch du möchtest mein Leben ah-ah
+Das würdest du nicht überleben
+Ich seh die Farben zu Narben werden wie Köpfe absterben wie sich Leute beschweren
+Doch was ich sehe ich hab zu weit gesehen genug gesehen
+Doch wenn ich hingucke sehe ich Leute die Musik machen
+Leute die über sie lachen und Leute wie wir die so was schon bedachten
+Und am Mikrofon mal als letztes lachen
+[Hook:]
+Superheroez Buschgorilla gegen Zirkusaffen das kann ja nicht klappen
+Superheroez und ich sehe die meisten scheißen aufs Leben
+Sie würden alles aufgeben ich lebe nicht für Hip Hop
+Superheroez ich bin titanisch nordafrikanisch Battle cat
+Meine Punches Einschusslöcher King of Kingz Sonny Black. Superheroez
+[Part III - Bushido:]
+Wenn ich bounce regnet es Feuer vom Himmel
+Ich verschmelze mit dem Schatten beobachte und kille
+Du trägst Camouflage-Tarnung und denkst Du könntest mich beißen
+Wirf Deine Seile ich ziehe einmal und sie reißen
+Du bunkerst Dich in Hecken schießt auf mich Du willst mein Leben
+Schick mir deine Sniper-bullets ich fang sie mit meinen Zähnen
+Ich bin titanisch nordafrikanisch Battle-Cat
+Meine Punches Einschusslöcher King Of Kingz Sonny Black
+Bpm sind Nutten gib mir Tempo Superheroe
+Ich presse meine Gedanken und verkaufe sie als Kilo
+Schau mich an siehst Du wie ich Deine Angst inhaliere
+Du ziehst Mic ich das Messer und steche es dir in die Niere
+Meine Raps fließen rot auf den Boden auf dem ich stehe
+Leute wie Dich halte ich im Keller Luft für deine Vene
+Deine Eltern sind Geschwister Du der Vater deiner Schwester
+Komm lass uns sprechen doch merke ich rede mit Messer
+Noch einmal meine Punches treffen immer das Schwarze
+Meine Fans sind Sado-Maso mit Ketten durch ihre Warze
+Ich sponsor Deinen Sarg meine Banger feiern Begräbnis
+Du wolltest nicht auf mich hören biten geht nicht</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,8 +684,55 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Intro]Yeah! Sonny Black! I love Money Records! 24/7 Hannover! Yeah! De la moq! Roulette!True Kanack! D-Bo! Frank White! Bushido! Yeah![Part 1]Das Leben ist ein Arschfick! Lauf nur davon doch du kannst nicht entkommenHalt dich fest an deinem Leben und es wird dir genommenWer kann schon behaupten in Träumen zu sehen?Doch ich weis, dass ich hier bin um mein bestes zu geben!Es kann auch sein, dass morgen schon alles zu ende istDeswegen bin ich nicht der Typ, der andren aus den Händen frisst!Es ist der weg und mein Stempel, den ich drücke meine Schlange die mich beisstUnd mein Apfel den ich pflücke! Sind es schmerzen? Sind es meine? Sind es Fehler? Sinds nich deine! Sind es Laster die ich trage?Sind es meine? Ich hab dich nicht gefragt, warum willst du reden?Warum wollen fremde Menschen plötzlich da sein und mich pflegen?Von Anfang an war ich alleine und verlassenIch sollte besser geben als zu nehmen! Lieber lieben als nur hassen!Erinnern anstatt mich zu vergessenDoch jeden frag ich meine Mutter wer ich bin![Hook]Das Leben ist ein Arschfick in 24 Stunden fließen neue Tränen neuer Kummer reizen alte Wunden!23 Stunden und 60 Minuten wird es dauern bis es wieder anfängt, und wir bluten!Das Leben ist ein Arschfick in 24 Stunden fließen neue Tränen neuer Kummer reizen alte Wunden!23 Stunden und 60 Minuten wird es dauern bis es wieder anfängt, und wir bluten!
-[Part 2]Auf jede Antwort stell ich mir neue Fragen und ich werd mich weiter fragen und nach 120 Jahren!Freunde werden kommen und sie werden wieder gehenUnd der könig wird fallen um nun wieder auf zu stehenDer Krieg wird hier beendet um wo anders auszubrechenKleine Kinder werden sterben weil sich andre dadurch rächenSag mir nicht ich suche nur das schlechte in den LeutenIch erhebe keine Klage also brauch ich keine ZeugenIch spreche aus Erfahrung mit dem Sinn aus meinem HerzenWenn du mich verstehen kannst, wärst du einer der erstenMeine Pfade sind staubich und meine Augen tränen es wär vielleicht besser sie zu schließen um es nicht zu sehen! doch wozu? Es ist so wie es ist und esWird wie es sein soll, du hast Ängste? Ich auch!Laber mich nicht mit deinen voll!Das Leben ist ein Arschfick![Hook]Das Leben ist ein Arschfick in 24 Stunden fließen neue Tränen neuer Kummer reizen alte Wunden!23 Stunden und 60 Minuten wird es dauern bis es wieder anfängt, und wir bluten!Das Leben ist ein Arschfick in 24 Stunden fließen neue Tränen neuer Kummer reizen alte Wunden!23 Stunden und 60 Minuten wird es dauern bis es wieder anfängt, und wir bluten![Outro]Yeah! yeah! Bushido! Südberlin! Das Leben ist ein Arschfick!Du musst es nehmen wie es kommt! Warum willst dus nicht sehen man!?Warum? Yeah, ihr denkt ihr könnt flüchten?Rennt, doch es wird euch sowieso wieder einholen!Yeah! Macht was ihr wollt doch es kommt wie es kommt! Yeah!Bushido! 24/7, I love Money! Yeah! De la Moq! Yeah! Arsch fick yoa!!</t>
+          <t>[Intro]
+Yeah! Sonny Black! I love Money Records! 24/7 Hannover! Yeah! De la moq! Roulette!
+True Kanack! D-Bo! Frank White! Bushido! Yeah!
+[Part 1]
+Das Leben ist ein Arschfick! Lauf nur davon doch du kannst nicht entkommen
+Halt dich fest an deinem Leben und es wird dir genommen
+Wer kann schon behaupten in Träumen zu sehen?
+Doch ich weis, dass ich hier bin um mein bestes zu geben!
+Es kann auch sein, dass morgen schon alles zu ende ist
+Deswegen bin ich nicht der Typ, der andren aus den Händen frisst!
+Es ist der weg und mein Stempel, den ich drücke meine Schlange die mich beisst
+Und mein Apfel den ich pflücke! Sind es schmerzen? Sind es meine? Sind es Fehler? Sinds nich deine! Sind es Laster die ich trage?
+Sind es meine? Ich hab dich nicht gefragt, warum willst du reden?
+Warum wollen fremde Menschen plötzlich da sein und mich pflegen?
+Von Anfang an war ich alleine und verlassen
+Ich sollte besser geben als zu nehmen! Lieber lieben als nur hassen!
+Erinnern anstatt mich zu vergessen
+Doch jeden frag ich meine Mutter wer ich bin!
+[Hook]
+Das Leben ist ein Arschfick in 24 Stunden fließen neue Tränen neuer Kummer reizen alte Wunden!
+23 Stunden und 60 Minuten wird es dauern bis es wieder anfängt, und wir bluten!
+Das Leben ist ein Arschfick in 24 Stunden fließen neue Tränen neuer Kummer reizen alte Wunden!
+23 Stunden und 60 Minuten wird es dauern bis es wieder anfängt, und wir bluten!
+[Part 2]
+Auf jede Antwort stell ich mir neue Fragen und ich werd mich weiter fragen und nach 120 Jahren!
+Freunde werden kommen und sie werden wieder gehen
+Und der könig wird fallen um nun wieder auf zu stehen
+Der Krieg wird hier beendet um wo anders auszubrechen
+Kleine Kinder werden sterben weil sich andre dadurch rächen
+Sag mir nicht ich suche nur das schlechte in den Leuten
+Ich erhebe keine Klage also brauch ich keine Zeugen
+Ich spreche aus Erfahrung mit dem Sinn aus meinem Herzen
+Wenn du mich verstehen kannst, wärst du einer der ersten
+Meine Pfade sind staubich und meine Augen tränen es wär vielleicht besser sie zu schließen um es nicht zu sehen! doch wozu? Es ist so wie es ist und es
+Wird wie es sein soll, du hast Ängste? Ich auch!
+Laber mich nicht mit deinen voll!
+Das Leben ist ein Arschfick!
+[Hook]
+Das Leben ist ein Arschfick in 24 Stunden fließen neue Tränen neuer Kummer reizen alte Wunden!
+23 Stunden und 60 Minuten wird es dauern bis es wieder anfängt, und wir bluten!
+Das Leben ist ein Arschfick in 24 Stunden fließen neue Tränen neuer Kummer reizen alte Wunden!
+23 Stunden und 60 Minuten wird es dauern bis es wieder anfängt, und wir bluten!
+[Outro]
+Yeah! yeah! Bushido! Südberlin! Das Leben ist ein Arschfick!
+Du musst es nehmen wie es kommt! Warum willst dus nicht sehen man!?
+Warum? Yeah, ihr denkt ihr könnt flüchten?
+Rennt, doch es wird euch sowieso wieder einholen!
+Yeah! Macht was ihr wollt doch es kommt wie es kommt! Yeah!
+Bushido! 24/7, I love Money! Yeah! De la Moq! Yeah! Arsch fick yoa!!</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,8 +776,62 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Part 1]Zeig mir deine Crew und ich zerlege euch in vierZeig mir deinen Rap und ich weiß vorher schon, er kommt von mir. (Yeah)Seit damals war ich oft allein und hab geweintDoch bis heute weiß ich noch, wer früher Freund war und wer Feind. (Yeah)Was glaubt ihr eigentlich wie lange ich noch kann?Nicht mehr lange und ich mach Schluss mit dir und dem verfickten Rest! (Yes)Kauf dir deine Freunde, kauf dir die ganze WeltDoch ich weiß, dass ich nicht der bin, der von uns zu Staub zerfälltDie Schmerzen, die mich plagen, gaben mir den Sinn zum LebenSeitdem ich denken kann, hab ich schon immer mehr gegeben als genommenDoch immer nur an gespaltene ZungenHalte fest an meiner Crew und press mir Luft in meine Lungen. (Yes)Tränen fließen und ich frag mich einfach nur weshalb?Warum steh ich hier im Dunkeln? Warum wird mir plötzlich kalt? (Huh)Das geht raus an alle, die mir helfen mich zu fickenUnser Leben ist kein Film, weil die Guten nicht gewinnen - Sonny Black![Hook]Wo sind die Wichser, die denken sie könnten dissen?Wo sind die Schlampen, die vorher auf mich geschissen haben?Nur weil jetzt einige Jahre vergangen sindBraucht ihr nicht zu denken, dass ich euch vergessen hätte!Ich bin der King!#Wo sind die Wichser, die denken sie könnten dissen?Wo sind die Schlampen, die vorher auf mich geschissen haben?Nur weil jetzt einige Jahre vergangen sindBraucht ihr nicht zu denken, dass ich euch vergessen hätte!Ich bin der King!
-[Part 2]Das einzige was für mich zählt, bin ich und meine LeuteIch hör ne Menge Schlangen sagen "Gestern ist nicht heute."Heute ist nicht morgen, doch warum soll ich vergessen? (Huh)Warum soll ich nicht alle Stimmen töten, die mich stressen?Ich habe keinen Bezug zu dir, weil du nicht wichtig bistIch sage auch nicht ja, wenn einer deiner Raps nicht richtig istWarum soll ich für andere so tun als ob?Ich denke an das Böse, genauso oft wie an Gott! (Yeah)Ich denke an damals und auch ich hatte meine FehlerDoch im Gegensatz zu euch war ich da, auch wenn es schwer warIch war niemals mehr als nur ehrlich zu mir selbstUnd jetzt ziehst du dein Messer weil die Wahrheit dir nicht gefällt? (Huh)Komm und stech mich ab, stech mir mitten in mein Herz!Schau mich an und sag mir, was du heute noch ohne mich wärst!Mach jetzt endlich Schluss, denn ich bin eh schon längst gestorbenDamals warn wir Brüder was ist heute daraus geworden? - Sonny Black[Chorus]Wo sind die Wichser, die denken sie könnten dissen?Wo sind die Schlampen, die vorher auf mich geschissen haben?Nur weil jetzt einige Jahre vergangen sindBraucht ihr nicht zu denken, dass ich euch vergessen hätte!Ich bin der King!Wo sind die Wichser, die denken sie könnten dissen?Wo sind die Schlampen, die vorher auf mich geschissen haben?Nur weil jetzt einige Jahre vergangen sindBraucht ihr nicht zu denken, dass ich euch vergessen hätte!Ich bin der King!</t>
+          <t>[Part 1]
+Zeig mir deine Crew und ich zerlege euch in vier
+Zeig mir deinen Rap und ich weiß vorher schon, er kommt von mir. (Yeah)
+Seit damals war ich oft allein und hab geweint
+Doch bis heute weiß ich noch, wer früher Freund war und wer Feind. (Yeah)
+Was glaubt ihr eigentlich wie lange ich noch kann?
+Nicht mehr lange und ich mach Schluss mit dir und dem verfickten Rest! (Yes)
+Kauf dir deine Freunde, kauf dir die ganze Welt
+Doch ich weiß, dass ich nicht der bin, der von uns zu Staub zerfällt
+Die Schmerzen, die mich plagen, gaben mir den Sinn zum Leben
+Seitdem ich denken kann, hab ich schon immer mehr gegeben als genommen
+Doch immer nur an gespaltene Zungen
+Halte fest an meiner Crew und press mir Luft in meine Lungen. (Yes)
+Tränen fließen und ich frag mich einfach nur weshalb?
+Warum steh ich hier im Dunkeln? Warum wird mir plötzlich kalt? (Huh)
+Das geht raus an alle, die mir helfen mich zu ficken
+Unser Leben ist kein Film, weil die Guten nicht gewinnen - Sonny Black!
+[Hook]
+Wo sind die Wichser, die denken sie könnten dissen?
+Wo sind die Schlampen, die vorher auf mich geschissen haben?
+Nur weil jetzt einige Jahre vergangen sind
+Braucht ihr nicht zu denken, dass ich euch vergessen hätte!
+Ich bin der King!
+#Wo sind die Wichser, die denken sie könnten dissen?
+Wo sind die Schlampen, die vorher auf mich geschissen haben?
+Nur weil jetzt einige Jahre vergangen sind
+Braucht ihr nicht zu denken, dass ich euch vergessen hätte!
+Ich bin der King!
+[Part 2]
+Das einzige was für mich zählt, bin ich und meine Leute
+Ich hör ne Menge Schlangen sagen "Gestern ist nicht heute."
+Heute ist nicht morgen, doch warum soll ich vergessen? (Huh)
+Warum soll ich nicht alle Stimmen töten, die mich stressen?
+Ich habe keinen Bezug zu dir, weil du nicht wichtig bist
+Ich sage auch nicht ja, wenn einer deiner Raps nicht richtig ist
+Warum soll ich für andere so tun als ob?
+Ich denke an das Böse, genauso oft wie an Gott! (Yeah)
+Ich denke an damals und auch ich hatte meine Fehler
+Doch im Gegensatz zu euch war ich da, auch wenn es schwer war
+Ich war niemals mehr als nur ehrlich zu mir selbst
+Und jetzt ziehst du dein Messer weil die Wahrheit dir nicht gefällt? (Huh)
+Komm und stech mich ab, stech mir mitten in mein Herz!
+Schau mich an und sag mir, was du heute noch ohne mich wärst!
+Mach jetzt endlich Schluss, denn ich bin eh schon längst gestorben
+Damals warn wir Brüder was ist heute daraus geworden? - Sonny Black
+[Chorus]
+Wo sind die Wichser, die denken sie könnten dissen?
+Wo sind die Schlampen, die vorher auf mich geschissen haben?
+Nur weil jetzt einige Jahre vergangen sind
+Braucht ihr nicht zu denken, dass ich euch vergessen hätte!
+Ich bin der King!
+Wo sind die Wichser, die denken sie könnten dissen?
+Wo sind die Schlampen, die vorher auf mich geschissen haben?
+Nur weil jetzt einige Jahre vergangen sind
+Braucht ihr nicht zu denken, dass ich euch vergessen hätte!
+Ich bin der King!</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,9 +875,83 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Intro :]"Bushido"Was?"warum rappst du?"Ich will Blut!"du willst Blut?"Rotes Blut"dann musst du sie beißen!"[Strophe 1]Ich bin der King in Sachen, wie fick ich am besten deine MamaWie ein Tanker transportiere ich Rapper unter die ErdeSterne leuchten schwarz in der Nacht und auch am TagDu bestellt dir mein Tape und ich schicks dir Gratis mit ins GrabStreit es ab, doch du frisst dir Reste aus meiner KerbeIhr Nutten wollt mich verändern?Ich reite weiter wie PferdeDu hast Angst vor Terror, dann kennst du noch lang nicht allesDu fragst dich warum ich kokse? weil meine Ego erste Wahl istIch bin von Geburt an ein Riese mit braunen AugenZerquetsche Köpfe wie Trauben, zwischen Zeigefinger und DaumenTöte deine Lebensart mit meiner schwarzen SaatSonny King Black. Ich bin ein Mann und bleibe hart[Hook 2x]Nutte Bounce, Ich bumse heimlich mit deiner MamaNutte Bounce, in 14 Tagen bin ich dann PapaNutte Bounce, wo bleibt dein Respekt. Sonny BlackNutte, bounce bounce bounce Nutte Nutte bounce
-[Strophe II :]Ich ziehe dich an deinen blonden Haaren, auf die BrückeDen Abzug den Ich drücke. Zerreiße deine Seele in StückeRisiko. Wieviel Flow kannst du bringen, bevor ich beiße?Ich kann machen was ich willUnd ihr Nutten fressen meine ScheisseWenn ich sage "Bounce" töten Töchter ihre ElternWirf die Asche in den WindDamit sie gratis durch die Welt fahr'nIch bin voller Hass weil ich sehe wie blind du bistIch schlafe tagsüber in Särgen und leben in FinsternissIch heule mit Wölfen, habe tote GedankenHabe Pranken statt Hände, sag nicht dankeAm Ende bin ich pure RealitätFür dich kKommt jede Hilfe zu spätFick auf Legende. Ich bin die, die lebt[Hook 2x]Nutte Bounce, Ich bumse heimlich mit deiner MamaNutte Bounce, in 14 Tagen bin ich dann PapaNutte Bounce, wo bleibt dein Respekt. Sonny BlackNutte, bounce bounce bounce Nutte Nutte bounce[Strophe 3]Wer von euch Nutten will als erster an meinem Schwanz sein?Du verbrennst, wenn du an mich denkstIch fick Rap mit einer PunchlineDu denkst du hast gelernt und zeigst mir deine BangerKuck mir einmal in die Augen und dein Flow mutiert zum HängerIch bin Aggro und presse schwarzes Blut durch deinen KörperIch bin Kanacke. Amerika sagt ich wär ein Mörder "du das Opfer" ich der Typ der dich zerstückelt, wenn du Mut zeigstDu kannst sagen, was du willstIch weiß, dass du ab heute Blut scheisstMein Motto lautet ich bin cool und überlebeIch überlege nicht lange ich will Krieg und übernehmeVerschmelze mit der Stille, wenn ich kämpfe dann von hintenDu kannst dein Leben lang suchenDoch sag mir, wen willst du finden (Bushido)Ich reite bei dir ein, verteile schwarze MaskenSolo-Battle KommandoDeine Eier sind dick wie Pfasten (ihr Spasten)Ihr wollt mich biten? schreibt dir Rap's mit meinen SätzenEs sind (meine Gesetze). Fresse Kinder wie schwarze HexenIch schwöre auf meine Mutter, du wirst elendig verrecken80% Kokain im Blut. Komm runter, lass uns battlenWoher weiß ich vorher schon, das meine Punches treffenIch hör' tausend Gerüchte und jedesmal werd ich nur lächeln
-[Hook 2x]Nutte Bounce, Ich bumse heimlich mit deiner MamaNutte Bounce, in 14 Tagen bin ich dann PapaNutte Bounce, wo bleibt dein Respekt. Sonny BlackNutte, bounce bounce bounce Nutte Nutte bounce</t>
+          <t>[Intro :]
+"Bushido"
+Was?
+"warum rappst du?"
+Ich will Blut!
+"du willst Blut?"
+Rotes Blut
+"dann musst du sie beißen!"
+[Strophe 1]
+Ich bin der King in Sachen, wie fick ich am besten deine Mama
+Wie ein Tanker transportiere ich Rapper unter die Erde
+Sterne leuchten schwarz in der Nacht und auch am Tag
+Du bestellt dir mein Tape und ich schicks dir Gratis mit ins Grab
+Streit es ab, doch du frisst dir Reste aus meiner Kerbe
+Ihr Nutten wollt mich verändern?
+Ich reite weiter wie Pferde
+Du hast Angst vor Terror, dann kennst du noch lang nicht alles
+Du fragst dich warum ich kokse? weil meine Ego erste Wahl ist
+Ich bin von Geburt an ein Riese mit braunen Augen
+Zerquetsche Köpfe wie Trauben, zwischen Zeigefinger und Daumen
+Töte deine Lebensart mit meiner schwarzen Saat
+Sonny King Black. Ich bin ein Mann und bleibe hart
+[Hook 2x]
+Nutte Bounce, Ich bumse heimlich mit deiner Mama
+Nutte Bounce, in 14 Tagen bin ich dann Papa
+Nutte Bounce, wo bleibt dein Respekt. Sonny Black
+Nutte, bounce bounce bounce Nutte Nutte bounce
+[Strophe II :]
+Ich ziehe dich an deinen blonden Haaren, auf die Brücke
+Den Abzug den Ich drücke. Zerreiße deine Seele in Stücke
+Risiko. Wieviel Flow kannst du bringen, bevor ich beiße?
+Ich kann machen was ich will
+Und ihr Nutten fressen meine Scheisse
+Wenn ich sage "Bounce" töten Töchter ihre Eltern
+Wirf die Asche in den Wind
+Damit sie gratis durch die Welt fahr'n
+Ich bin voller Hass weil ich sehe wie blind du bist
+Ich schlafe tagsüber in Särgen und leben in Finsterniss
+Ich heule mit Wölfen, habe tote Gedanken
+Habe Pranken statt Hände, sag nicht danke
+Am Ende bin ich pure Realität
+Für dich kKommt jede Hilfe zu spät
+Fick auf Legende. Ich bin die, die lebt
+[Hook 2x]
+Nutte Bounce, Ich bumse heimlich mit deiner Mama
+Nutte Bounce, in 14 Tagen bin ich dann Papa
+Nutte Bounce, wo bleibt dein Respekt. Sonny Black
+Nutte, bounce bounce bounce Nutte Nutte bounce
+[Strophe 3]
+Wer von euch Nutten will als erster an meinem Schwanz sein?
+Du verbrennst, wenn du an mich denkst
+Ich fick Rap mit einer Punchline
+Du denkst du hast gelernt und zeigst mir deine Banger
+Kuck mir einmal in die Augen und dein Flow mutiert zum Hänger
+Ich bin Aggro und presse schwarzes Blut durch deinen Körper
+Ich bin Kanacke. Amerika sagt ich wär ein Mörder "du das Opfer" ich der Typ der dich zerstückelt, wenn du Mut zeigst
+Du kannst sagen, was du willst
+Ich weiß, dass du ab heute Blut scheisst
+Mein Motto lautet ich bin cool und überlebe
+Ich überlege nicht lange ich will Krieg und übernehme
+Verschmelze mit der Stille, wenn ich kämpfe dann von hinten
+Du kannst dein Leben lang suchen
+Doch sag mir, wen willst du finden (Bushido)
+Ich reite bei dir ein, verteile schwarze Masken
+Solo-Battle Kommando
+Deine Eier sind dick wie Pfasten (ihr Spasten)
+Ihr wollt mich biten? schreibt dir Rap's mit meinen Sätzen
+Es sind (meine Gesetze). Fresse Kinder wie schwarze Hexen
+Ich schwöre auf meine Mutter, du wirst elendig verrecken
+80% Kokain im Blut. Komm runter, lass uns battlen
+Woher weiß ich vorher schon, das meine Punches treffen
+Ich hör' tausend Gerüchte und jedesmal werd ich nur lächeln
+[Hook 2x]
+Nutte Bounce, Ich bumse heimlich mit deiner Mama
+Nutte Bounce, in 14 Tagen bin ich dann Papa
+Nutte Bounce, wo bleibt dein Respekt. Sonny Black
+Nutte, bounce bounce bounce Nutte Nutte bounce</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -677,9 +995,78 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Intro:]KokainKokain!Kokain! Yo![Strophe I:]Fick Rap und ich fick den Rest der WeltFick auf Keep it real, yoah! Ich liebe GeldMit den Eiern bis zum Boden ficken wir auf RapKing Orgasmus One, Sultan Hengzt, Sonny BlackFick Hip-Hop, yoah! Ich roll im (?), yoah!Ich greife mir das Mic und rufe einfach: Fuck yoah!Ich bin der King und verliebe michIn mich selbst und spritz dir dabei ins GesichtDu leckst dir über die LippenRufst nach BMW, ich rufe: Zeig mir Titten!Wer will Battle mit BMW zu drittKöpfen wir MCs, fick auf Oldschool-ShitMeine Crew bedeutet ihr seid totIhr Nutten bremst bei Gelb, wir fahren über Rot, yoahKoka Rap, BMW is freshI luv Money Records, ich fick auf Rap![Chorus:]Fick Rap! Lederjacken, Silberketten, BMW!Fick Rap! Sind die einzigen die burnen, BMW!Fick Rap! Ich bin der King, I luv Money, BmW!Fick Rap! Sonny Black, BMW!Fick Rap!Fick Rap! Lederjacken, Silberketten, BMW!Fick Rap! Sind die einzigen die burnen, BMW!Fick Rap! Ich bin der King, I luv Money, BmW!Fick Rap! Sonny Black, BMW!Fick Rap!
-[Strophe II:]Fick Rap! Gangbang, Südberlin, Frank WhiteTempelhof, B-U, check: 143Mit der Nase voller Schnee und 'ner Nutte auf'm SchoßProgrammieren ich die Beats und kicke meine FlowsYo, www.ich-töte-hiphopIch bin BMW und höre heimlich Tony LFick auf Underground, fick auf alles was nicht I luv Money Records ist (ich bin der Mac!)Sonny Black, Highjack, ficke alle die uns hasstWarum sagt ihr ich bite, lutscht mein Schwanz!Ihr homosexuellen arschgefickten CracksBMW fickt dein Leben, deine Crew und deine RapsSag wir sind nicht dope, weil wir eh auf alles scheißenSag wir sind nicht dope, weil wir Diesel Hosen tragenSag wir sind nicht dope, weil wir nicht so sind wie TorchWir sind Berlins Most WantedFick auf Rap![Chorus:]Fick Rap! Lederjacken, Silberketten, BMW!Fick Rap! Sind die einzigen die burnen, BMW!Fick Rap! Ich bin der King, I luv Money, BmW!Fick Rap! Sonny Black, BMW!Fick Rap!Fick Rap! Lederjacken, Silberketten, BMW!Fick Rap! Sind die einzigen die burnen, BMW!Fick Rap! Ich bin der King, I luv Money, BmW!Fick Rap! Sonny Black, BMW!Fick Rap!
-[Outro :]Fick, fick, Rap, RapSonny, Sonny, Black, Black. Yo, hahaha!Ihr Flitchen, Flitchen! BMW, Sonny Black! Orgasmus! Orgi!Bass Sultan Hengzt, Hengzt! D-Bo! Boo! Yeah! Bushido! YoIhr seid Flitchen, Flitchen! Haha, yeah, ohh yeah, yeahKokain! Kokain! Yeah, hahahaOhh yeah... yeah,  Bushido!Hip-Hop Underground Bullshit, Schei?e von Bulle, yeah! YoYeah, BMW, yeah! Ohh, yeah!So macht man's glaub ich... yeah!Ruf ma' yeah! Yeah! Yo!</t>
+          <t>[Intro:]
+Kokain
+Kokain!
+Kokain! Yo!
+[Strophe I:]
+Fick Rap und ich fick den Rest der Welt
+Fick auf Keep it real, yoah! Ich liebe Geld
+Mit den Eiern bis zum Boden ficken wir auf Rap
+King Orgasmus One, Sultan Hengzt, Sonny Black
+Fick Hip-Hop, yoah! Ich roll im (?), yoah!
+Ich greife mir das Mic und rufe einfach: Fuck yoah!
+Ich bin der King und verliebe mich
+In mich selbst und spritz dir dabei ins Gesicht
+Du leckst dir über die Lippen
+Rufst nach BMW, ich rufe: Zeig mir Titten!
+Wer will Battle mit BMW zu dritt
+Köpfen wir MCs, fick auf Oldschool-Shit
+Meine Crew bedeutet ihr seid tot
+Ihr Nutten bremst bei Gelb, wir fahren über Rot, yoah
+Koka Rap, BMW is fresh
+I luv Money Records, ich fick auf Rap!
+[Chorus:]
+Fick Rap! Lederjacken, Silberketten, BMW!
+Fick Rap! Sind die einzigen die burnen, BMW!
+Fick Rap! Ich bin der King, I luv Money, BmW!
+Fick Rap! Sonny Black, BMW!
+Fick Rap!
+Fick Rap! Lederjacken, Silberketten, BMW!
+Fick Rap! Sind die einzigen die burnen, BMW!
+Fick Rap! Ich bin der King, I luv Money, BmW!
+Fick Rap! Sonny Black, BMW!
+Fick Rap!
+[Strophe II:]
+Fick Rap! Gangbang, Südberlin, Frank White
+Tempelhof, B-U, check: 143
+Mit der Nase voller Schnee und 'ner Nutte auf'm Schoß
+Programmieren ich die Beats und kicke meine Flows
+Yo, www.ich-töte-hiphop
+Ich bin BMW und höre heimlich Tony L
+Fick auf Underground, fick auf alles was nicht I luv Money Records ist (ich bin der Mac!)
+Sonny Black, Highjack, ficke alle die uns hasst
+Warum sagt ihr ich bite, lutscht mein Schwanz!
+Ihr homosexuellen arschgefickten Cracks
+BMW fickt dein Leben, deine Crew und deine Raps
+Sag wir sind nicht dope, weil wir eh auf alles scheißen
+Sag wir sind nicht dope, weil wir Diesel Hosen tragen
+Sag wir sind nicht dope, weil wir nicht so sind wie Torch
+Wir sind Berlins Most Wanted
+Fick auf Rap!
+[Chorus:]
+Fick Rap! Lederjacken, Silberketten, BMW!
+Fick Rap! Sind die einzigen die burnen, BMW!
+Fick Rap! Ich bin der King, I luv Money, BmW!
+Fick Rap! Sonny Black, BMW!
+Fick Rap!
+Fick Rap! Lederjacken, Silberketten, BMW!
+Fick Rap! Sind die einzigen die burnen, BMW!
+Fick Rap! Ich bin der King, I luv Money, BmW!
+Fick Rap! Sonny Black, BMW!
+Fick Rap!
+[Outro :]
+Fick, fick, Rap, Rap
+Sonny, Sonny, Black, Black. Yo, hahaha!
+Ihr Flitchen, Flitchen! BMW, Sonny Black! Orgasmus! Orgi!
+Bass Sultan Hengzt, Hengzt! D-Bo! Boo! Yeah! Bushido! Yo
+Ihr seid Flitchen, Flitchen! Haha, yeah, ohh yeah, yeah
+Kokain! Kokain! Yeah, hahaha
+Ohh yeah... yeah, Bushido!
+Hip-Hop Underground Bullshit, Schei?e von Bulle, yeah! Yo
+Yeah, BMW, yeah! Ohh, yeah!
+So macht man's glaub ich... yeah!
+Ruf ma' yeah! Yeah! Yo!</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -723,8 +1110,48 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Strophe 1: Hengzt]Wäre deine Mutter fünf Mark billiger, wäre ich heut' dein VaterDu Opfer, zeig Respekt gegenüber dem Vergewaltiger deiner MutterBaktus der Gott des Schmerzens schenkt dir ein LächelnAuf Waisenkindern ich schlachte Kinder wie RinderDu stehst vor dem Spiegel, ich hinterLeute sagen heimlich, mich soll es gar nicht gebenWer fickt dann die Mädchen auf dem Weg zum Handballtrainig?B steht für Bass, A für Deine AngstK steht für Krebs, tus für Du HurensohnBaktus, Baktus, Baktus von der Gang DeinerMutter trägt KotlettenIch schieße auf Leute in der KircheWenn sie den falschen Gott anbetenDenkst Du ich zeige Respekt vor Deinen ElternWenn ich bei Dir chille?Ich boxe deine Mutter, während ich Deinen Videorekorder klaue[Strophe 2: Orgasmus]Ey Digga, ich halte die Waffe und ficke Deine MutterKing Orgasmus One, Hengzt, Sonny King BlackIch fick Dein Arschloch und töte WhacksMittelfingah - für euch alle!Kommt in meinem Jurassic Park und ich zerfetz dich wie T-RexIch habe mehr Nutten am Schwanz, als Haare am SackIch hab mehr Geld in meiner Potte, als du auf deiner BankButtman will Arsch, Bitch, dreh Dich umIch zerreiß dir dein String und hole Big OneMein Schwanz ist ein Killer - KinderfickerDu bist erst 15, aber trotzdem fick ich dichBitch kraul meine Eier und lutsche an mein Pint - Cumshot
-[Strophe 3: Bushido]Sag mir, warum soll ich deine Eltern nicht misshandelnWas kannst du gegen mich machen, außer meinem Arsch zu lecken?Du willst von mir Fairness, ok, komm und ich erklär dir'sIch beende dein Dasein, weil du des Lebens nicht mehr wert bistFrag mich, wer der King ist und es gibt nur eine AntwortStell dich gegen BMW und Du mutierst zu einem BrandlochSchlaf bei deiner Mama und ich box dich aus'm BettAb heute bin ich für Dich Papa. Junge, wo bleibt der Respekt?Glaubst du ich hab Angst vor dir? Ich stech dir in den HalsSag mir wo du dich treffen willst und ich zeig dir meinen Schwanz Deine sogenannten Flows sind alles FehlgeburtenRap 2001 bedeutet nur noch Geld, Sex und Nutten</t>
+          <t>[Strophe 1: Hengzt]
+Wäre deine Mutter fünf Mark billiger, wäre ich heut' dein Vater
+Du Opfer, zeig Respekt gegenüber dem Vergewaltiger deiner Mutter
+Baktus der Gott des Schmerzens schenkt dir ein Lächeln
+Auf Waisenkindern ich schlachte Kinder wie Rinder
+Du stehst vor dem Spiegel, ich hinter
+Leute sagen heimlich, mich soll es gar nicht geben
+Wer fickt dann die Mädchen auf dem Weg zum Handballtrainig?
+B steht für Bass, A für Deine Angst
+K steht für Krebs, tus für Du Hurensohn
+Baktus, Baktus, Baktus von der Gang Deiner
+Mutter trägt Kotletten
+Ich schieße auf Leute in der Kirche
+Wenn sie den falschen Gott anbeten
+Denkst Du ich zeige Respekt vor Deinen Eltern
+Wenn ich bei Dir chille?
+Ich boxe deine Mutter, während ich Deinen Videorekorder klaue
+[Strophe 2: Orgasmus]
+Ey Digga, ich halte die Waffe und ficke Deine Mutter
+King Orgasmus One, Hengzt, Sonny King Black
+Ich fick Dein Arschloch und töte Whacks
+Mittelfingah - für euch alle!
+Kommt in meinem Jurassic Park und ich zerfetz dich wie T-Rex
+Ich habe mehr Nutten am Schwanz, als Haare am Sack
+Ich hab mehr Geld in meiner Potte, als du auf deiner Bank
+Buttman will Arsch, Bitch, dreh Dich um
+Ich zerreiß dir dein String und hole Big One
+Mein Schwanz ist ein Killer - Kinderficker
+Du bist erst 15, aber trotzdem fick ich dich
+Bitch kraul meine Eier und lutsche an mein Pint - Cumshot
+[Strophe 3: Bushido]
+Sag mir, warum soll ich deine Eltern nicht misshandeln
+Was kannst du gegen mich machen, außer meinem Arsch zu lecken?
+Du willst von mir Fairness, ok, komm und ich erklär dir's
+Ich beende dein Dasein, weil du des Lebens nicht mehr wert bist
+Frag mich, wer der King ist und es gibt nur eine Antwort
+Stell dich gegen BMW und Du mutierst zu einem Brandloch
+Schlaf bei deiner Mama und ich box dich aus'm Bett
+Ab heute bin ich für Dich Papa. Junge, wo bleibt der Respekt?
+Glaubst du ich hab Angst vor dir? Ich stech dir in den Hals
+Sag mir wo du dich treffen willst und ich zeig dir meinen Schwanz Deine sogenannten Flows sind alles Fehlgeburten
+Rap 2001 bedeutet nur noch Geld, Sex und Nutten</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -768,9 +1195,62 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Intro :]Yeah, Sonny Black, RouletteWas will Berlin von mir?Was wollte ihr machen gegen mein Track mit Roulette?Schwarze Haare, braune Augen[Strophe I:][Sonny Black]Die Schwarze Seite meine Geschäfte die ich leiteZeige dir deine Träume mit RouletteNimm dein Wissen und wirf es wegOpfer dein Leben für Rap drück es auf 60 MinutenHol deine Hunde deine Leute und versuche mich zu suchenIch ziehe deine Gedanken zeige dir mit blankem EntsetzenWie ich deine Familie zersetze, zerfetze, hetzeDir Tot auf den Hals, fallsDu nicht willst das es passiert ruf deine GangDoch ich weiß dass ihr verliertFahrenheide, mein Versprechen an dichDas deine Knochen brechen, TempelhofDer Bezirk der dafür sorgt das es wird wie es sollWer will mir die Krone entreißen, wir beißenOhne zu bellen, zerfressen deine ZellenMeine Brüder sind wie Löwen, töten in SekundenWunden, die wir hinterlassen schießen wahllos in die MengeDenn wir hassen euchRespektiere dich nicht für das was du getan hastNicht für das was du vorhast, du bist der nächste du hat Angst
-[Chorus:][Sonny Black und Roulette][x4]Lern Die Schwarze Seite, Wege enden manchmal anders als du denkst, also pass auf wem du dein vertrauen schenkst[Strophe II:][Roulette]Deine Geschäfte sind gegen unsere KindergeschäfteEcke, Fresse, tesse Sonny Black und Crews sind besteAdresse für kesse Stresse starten mitOpfern den Messer wir Stressen mit WestberlinVersuch nicht zu fliehen zu flehen auf den knienBitte bitte an der Titte von deiner Schnitte mit der dich später wer mehr Punches in deine Fresse hinten weil wir mit Schmerzen von Schwarzen Seiten and der LipAuf der Straße versinken mein Bruder muss das Pflasterstein in seiner Lache erblickenMuss unsere messege aus den straßen kickenWeil sich alle gegenseitig fickenWenn ich mit meim bruder sonny blackBis in den tod versinkenDie zwei Fliegen wie du sie nennstWirst du nie mit einer klatsche schlagenIch klatsche und batscheScheiße ich zermaschte deine ganze crewIch bin rules fahrenheide falls du ärger willst wir wartenAber sei gewarnt du hast hier die schlechten kartenDeine waffe war nicht mal vor meinem kopf geladenWenn du nicht mal schießt solltest du nicht mitDem Zweitschaar Bus aus kanakistan kriege wagenFotze!
-[Chorus][x4][Bridge:]Yeah! D-Bo beat! Ihr beide haltet die Fresse, man!!!Was wollt ihr? Roulette Fahrenheide, Sonny Black TempelhofWas Wollt ihr? Fickt euren Beats, ihr Nutten! Fickt Aggro Berlin! I Luv Money Records 2001! Burn Out 2001![Chorus][x4]</t>
+          <t>[Intro :]
+Yeah, Sonny Black, Roulette
+Was will Berlin von mir?
+Was wollte ihr machen gegen mein Track mit Roulette?
+Schwarze Haare, braune Augen
+[Strophe I:][Sonny Black]
+Die Schwarze Seite meine Geschäfte die ich leite
+Zeige dir deine Träume mit Roulette
+Nimm dein Wissen und wirf es weg
+Opfer dein Leben für Rap drück es auf 60 Minuten
+Hol deine Hunde deine Leute und versuche mich zu suchen
+Ich ziehe deine Gedanken zeige dir mit blankem Entsetzen
+Wie ich deine Familie zersetze, zerfetze, hetze
+Dir Tot auf den Hals, falls
+Du nicht willst das es passiert ruf deine Gang
+Doch ich weiß dass ihr verliert
+Fahrenheide, mein Versprechen an dich
+Das deine Knochen brechen, Tempelhof
+Der Bezirk der dafür sorgt das es wird wie es soll
+Wer will mir die Krone entreißen, wir beißen
+Ohne zu bellen, zerfressen deine Zellen
+Meine Brüder sind wie Löwen, töten in Sekunden
+Wunden, die wir hinterlassen schießen wahllos in die Menge
+Denn wir hassen euch
+Respektiere dich nicht für das was du getan hast
+Nicht für das was du vorhast, du bist der nächste du hat Angst
+[Chorus:][Sonny Black und Roulette][x4]
+Lern Die Schwarze Seite, Wege enden manchmal anders als du denkst, also pass auf wem du dein vertrauen schenkst
+[Strophe II:][Roulette]
+Deine Geschäfte sind gegen unsere Kindergeschäfte
+Ecke, Fresse, tesse Sonny Black und Crews sind beste
+Adresse für kesse Stresse starten mit
+Opfern den Messer wir Stressen mit Westberlin
+Versuch nicht zu fliehen zu flehen auf den knien
+Bitte bitte an der Titte von deiner Schnitte mit der dich später wer mehr Punches in deine Fresse hinten weil wir mit Schmerzen von Schwarzen Seiten and der Lip
+Auf der Straße versinken mein Bruder muss das Pflasterstein in seiner Lache erblicken
+Muss unsere messege aus den straßen kicken
+Weil sich alle gegenseitig ficken
+Wenn ich mit meim bruder sonny black
+Bis in den tod versinken
+Die zwei Fliegen wie du sie nennst
+Wirst du nie mit einer klatsche schlagen
+Ich klatsche und batsche
+Scheiße ich zermaschte deine ganze crew
+Ich bin rules fahrenheide falls du ärger willst wir warten
+Aber sei gewarnt du hast hier die schlechten karten
+Deine waffe war nicht mal vor meinem kopf geladen
+Wenn du nicht mal schießt solltest du nicht mit
+Dem Zweitschaar Bus aus kanakistan kriege wagen
+Fotze!
+[Chorus][x4]
+[Bridge:]
+Yeah! D-Bo beat! Ihr beide haltet die Fresse, man!!!
+Was wollt ihr? Roulette Fahrenheide, Sonny Black Tempelhof
+Was Wollt ihr? Fickt euren Beats, ihr Nutten! Fickt Aggro Berlin! I Luv Money Records 2001! Burn Out 2001!
+[Chorus][x4]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -814,9 +1294,68 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Strophe I:]Dunkle Wolken, grelle Blitze und ich reite dir entgegen, auf Bildern die michTäuschen umgeben von FädenDie mich halten, die an mir ziehn, die dafür sorgen das ich untergehe, kein Tag anDem ich nicht sehe wie meineKräfte schwinden, versuche mich zu finden inmitten, all der Stimmen die mich fesselnUnd vergessen lassenIch würde hassen wenn ich könnte würd ich töten, ich suche deine Nähe, versteheNicht warum nicht wiesoUnd nicht weswegen, warum die schweren Laster auf den Schultern, auf dein Leben istGeschissen, sag wieLange ist es her, seit du wirklich mal gefühlt hast, egal ob Freude oder KummerHeute kletter ich nach ObenMorgen fall ich runter. Lauf und mach dir etwas vor, doch im Gegensatz zu dirFließen Tränen wenn ich weineIch bin ein Mann trotzdem fühl ich Schmerzen wenn ich blute, nehme was ich kannKenn das Schlechte undDas Gute. Suche meine Feinde, such sie unter meinen Freunden. Sehe meinen SchattenWarum soll ich ihnVerleugnen? Kenne meine Schwäche und beschütz sie mit der Stärke. Sterne fallen undSie landen tief unterDer Erde. Brüder gehen doch sie leben weil ich an sie denke. Hände helfen dir nichtImmer, sie sehen baldWas aus Allem wird. Bin ich Bauer oder König, bin ich Läufer oder Turm, denn dasLeben wird vergehen wieEin Kartenhaus im Sturm
-[Chorus:]Ich rufe deinen Namen, ich spüre deinen Atem, auch wenn meine Tränen fließen ichBleib' hier und werde wartenDer Schatten wird weichen, der Schleier wird vergehn', wie ein Engel wirst du kommenUm mir den Kummer zuNehmen. Denn du weißt ich rufe deinen Namen, ich spüre deinen Atem, auch wenn meineTränen fließen ich bleib'Hier und werde warten. Der Schatten wird weichen, der Schleier wird vergehn' wie einEngel wirst du kommen[Strophe II:]Meine Helden sterben und ich bete das du an mich denkst, wenn ich falle fängst duMich. Ich brauche dich, siehstDu mich? Ängste fallen mir schwer von der Seele, ich finde meinen Weg. Schau mirTief in meine Augen, warumGlauben kleine Kinder an die Lüge, denn ich fühle das du weißt, das ich warte duErscheinst mir. Jede Nacht hör'Ich dich. Ewig wird es dauern bis dein Licht durch meine Wolken bricht. Und ichDanke dir für jedes deinerZeichen. Wie lange wird es reichen? Wie lange muss ich noch ertragen, wie lang mussIch sehn', wie die IllusionVergeht und mein Vater meine Mutter schlägt, mein Bruder seine Eltern hört, seineHoffnung wird zerstört undAn was soll man sich halten wenn noch nicht mal das gleiche Blut zählt? Zuviel LeidBleibt, denk zurück an das wasWar, was nun ist, was noch wird. Jeder stirbt irgendwann, und was machst du dann? DuZweifelst an Gott deineWorte voller Spott. Du schwörst auf die Lüge weil die Wahrheit dir zu kalt ist. WasIst wenn du alt bist? Wohin willstDu flüchten wenn der Tod an deinem Bett sitzt, dir seine Hand reicht und dich aufSeinen Armen trägt, hast duWirklich gelebt?
-[Chorus][Outro:]Denn du weißt... Bushido-ohh, yeah-yeah, du weißt, du weißt, du siehst, du siehstSie kommt, sie kommt, yeah-yeahKing of Kingz!</t>
+          <t>[Strophe I:]
+Dunkle Wolken, grelle Blitze und ich reite dir entgegen, auf Bildern die mich
+Täuschen umgeben von Fäden
+Die mich halten, die an mir ziehn, die dafür sorgen das ich untergehe, kein Tag an
+Dem ich nicht sehe wie meine
+Kräfte schwinden, versuche mich zu finden inmitten, all der Stimmen die mich fesseln
+Und vergessen lassen
+Ich würde hassen wenn ich könnte würd ich töten, ich suche deine Nähe, verstehe
+Nicht warum nicht wieso
+Und nicht weswegen, warum die schweren Laster auf den Schultern, auf dein Leben ist
+Geschissen, sag wie
+Lange ist es her, seit du wirklich mal gefühlt hast, egal ob Freude oder Kummer
+Heute kletter ich nach Oben
+Morgen fall ich runter. Lauf und mach dir etwas vor, doch im Gegensatz zu dir
+Fließen Tränen wenn ich weine
+Ich bin ein Mann trotzdem fühl ich Schmerzen wenn ich blute, nehme was ich kann
+Kenn das Schlechte und
+Das Gute. Suche meine Feinde, such sie unter meinen Freunden. Sehe meinen Schatten
+Warum soll ich ihn
+Verleugnen? Kenne meine Schwäche und beschütz sie mit der Stärke. Sterne fallen und
+Sie landen tief unter
+Der Erde. Brüder gehen doch sie leben weil ich an sie denke. Hände helfen dir nicht
+Immer, sie sehen bald
+Was aus Allem wird. Bin ich Bauer oder König, bin ich Läufer oder Turm, denn das
+Leben wird vergehen wie
+Ein Kartenhaus im Sturm
+[Chorus:]
+Ich rufe deinen Namen, ich spüre deinen Atem, auch wenn meine Tränen fließen ich
+Bleib' hier und werde warten
+Der Schatten wird weichen, der Schleier wird vergehn', wie ein Engel wirst du kommen
+Um mir den Kummer zu
+Nehmen. Denn du weißt ich rufe deinen Namen, ich spüre deinen Atem, auch wenn meine
+Tränen fließen ich bleib'
+Hier und werde warten. Der Schatten wird weichen, der Schleier wird vergehn' wie ein
+Engel wirst du kommen
+[Strophe II:]
+Meine Helden sterben und ich bete das du an mich denkst, wenn ich falle fängst du
+Mich. Ich brauche dich, siehst
+Du mich? Ängste fallen mir schwer von der Seele, ich finde meinen Weg. Schau mir
+Tief in meine Augen, warum
+Glauben kleine Kinder an die Lüge, denn ich fühle das du weißt, das ich warte du
+Erscheinst mir. Jede Nacht hör'
+Ich dich. Ewig wird es dauern bis dein Licht durch meine Wolken bricht. Und ich
+Danke dir für jedes deiner
+Zeichen. Wie lange wird es reichen? Wie lange muss ich noch ertragen, wie lang muss
+Ich sehn', wie die Illusion
+Vergeht und mein Vater meine Mutter schlägt, mein Bruder seine Eltern hört, seine
+Hoffnung wird zerstört und
+An was soll man sich halten wenn noch nicht mal das gleiche Blut zählt? Zuviel Leid
+Bleibt, denk zurück an das was
+War, was nun ist, was noch wird. Jeder stirbt irgendwann, und was machst du dann? Du
+Zweifelst an Gott deine
+Worte voller Spott. Du schwörst auf die Lüge weil die Wahrheit dir zu kalt ist. Was
+Ist wenn du alt bist? Wohin willst
+Du flüchten wenn der Tod an deinem Bett sitzt, dir seine Hand reicht und dich auf
+Seinen Armen trägt, hast du
+Wirklich gelebt?
+[Chorus]
+[Outro:]
+Denn du weißt... Bushido-ohh, yeah-yeah, du weißt, du weißt, du siehst, du siehst
+Sie kommt, sie kommt, yeah-yeah
+King of Kingz!</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -860,10 +1399,93 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Songtext zu „Pitbull“][Part 1]Ich hab Hunger, deine Crew ist Fleisch, duHörst wie ich belle und ich beiß' zuDeine Leute rennen weg, sie haben zwei, ich hab 4Pitbulls, Sonny Black, geh ans Mic wie ein TierIch will Blut, mein Ziel: du tot, ich sattKlau mir den Beat und ich bleibe noch im TaktZeig mir deine Punchlines und ich zeig dir BMWZeig mir deine Beats, Nutte, und sie schmelzen wie SchneeSag, du bist fett, schrei "Nigga", doch du bist white, yoKeep it real, yo, ich kümmer mich um meine EierMeine Nase, mein Rap, Sonny BlackDu willst biten? Komm her, drück "Rec"[Hook]Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?
-[Part 2]Sag meinen Namen: S-O-Doppel N-Y King Black48 ganze Rows, ich steh hier für Schwanz und FlowsB-U-S-H-I-D-O, yeah, ich fick auf RapIch hab tausendmal mehr SkillBMW heißt wir sind nicht so wie der RestBMW scheißt Gold, komm und ich kack dir auf den BauchDu Spast hast jeden deiner Reime von mirTust so als wär ich nicht der, der du so gerne wärstIch halte meine Ohren zu und weißt, dass du nicht burnstDu kannst schreiben und erzählen was du willstSonny BMW Black bleibt King of Kingz[Hook]Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?[Part 3]Eine Krone, ein Mic, ein Mann, ein WortEin Blick in meine Augen und du weißt, du bist totEin Biss in deine Kehle und ich schmecke warmes BlutEin Takt, ein Reim und du dachtest, du wärst gut10 von dir sind nicht mehr als meine EierDu willst Community? Fick deine MutterIch hab nie behauptet, dass wir was gemeinsam hättenDeine Leute wollen Freunde sein und ich will rappenDu musst endlich raffen: Ohne Krieg kein FriedenIch kann deine Tochter ficken, ohne sie zu liebenMeine Gang, BM wer will Stress?Pitbull, Sonny Black
-[Hook]Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?Pitbull, Sonny Black, sag, was du willstDoch du bleibst, wie du bistBitest du mich, fick ich dich und deine Gang, wer will Battle?Gegen mich und meine Crew? Wer, du?
-[Outro]YeahMarienfelde, Tempelhof, SüdberlinKauft Tapes, Sonny Black, yeahBMW, Bushido, Bass Sultan Hengzt, Orgasmus, yeah</t>
+          <t>[Songtext zu „Pitbull“]
+[Part 1]
+Ich hab Hunger, deine Crew ist Fleisch, du
+Hörst wie ich belle und ich beiß' zu
+Deine Leute rennen weg, sie haben zwei, ich hab 4
+Pitbulls, Sonny Black, geh ans Mic wie ein Tier
+Ich will Blut, mein Ziel: du tot, ich satt
+Klau mir den Beat und ich bleibe noch im Takt
+Zeig mir deine Punchlines und ich zeig dir BMW
+Zeig mir deine Beats, Nutte, und sie schmelzen wie Schnee
+Sag, du bist fett, schrei "Nigga", doch du bist white, yo
+Keep it real, yo, ich kümmer mich um meine Eier
+Meine Nase, mein Rap, Sonny Black
+Du willst biten? Komm her, drück "Rec"
+[Hook]
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+[Part 2]
+Sag meinen Namen: S-O-Doppel N-Y King Black
+48 ganze Rows, ich steh hier für Schwanz und Flows
+B-U-S-H-I-D-O, yeah, ich fick auf Rap
+Ich hab tausendmal mehr Skill
+BMW heißt wir sind nicht so wie der Rest
+BMW scheißt Gold, komm und ich kack dir auf den Bauch
+Du Spast hast jeden deiner Reime von mir
+Tust so als wär ich nicht der, der du so gerne wärst
+Ich halte meine Ohren zu und weißt, dass du nicht burnst
+Du kannst schreiben und erzählen was du willst
+Sonny BMW Black bleibt King of Kingz
+[Hook]
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+[Part 3]
+Eine Krone, ein Mic, ein Mann, ein Wort
+Ein Blick in meine Augen und du weißt, du bist tot
+Ein Biss in deine Kehle und ich schmecke warmes Blut
+Ein Takt, ein Reim und du dachtest, du wärst gut
+10 von dir sind nicht mehr als meine Eier
+Du willst Community? Fick deine Mutter
+Ich hab nie behauptet, dass wir was gemeinsam hätten
+Deine Leute wollen Freunde sein und ich will rappen
+Du musst endlich raffen: Ohne Krieg kein Frieden
+Ich kann deine Tochter ficken, ohne sie zu lieben
+Meine Gang, BM wer will Stress?
+Pitbull, Sonny Black
+[Hook]
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+Pitbull, Sonny Black, sag, was du willst
+Doch du bleibst, wie du bist
+Bitest du mich, fick ich dich und deine Gang, wer will Battle?
+Gegen mich und meine Crew? Wer, du?
+[Outro]
+Yeah
+Marienfelde, Tempelhof, Südberlin
+Kauft Tapes, Sonny Black, yeah
+BMW, Bushido, Bass Sultan Hengzt, Orgasmus, yeah</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -907,11 +1529,114 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Intro: Frank White (Fler)]Alter, lauf weg, man!Äh, Frank White und Sonny Black kommenDie wollen mich holen - die holen michWir werden alle sterbenWir sterben alle! Dellamok!(o)kay! Yeah! Yoa![Strophe I : Sonny Black (Bushido)]Nike Airmax - Sonny Black BounceSchreit meinen Namen: "Sonny King Black" - Bounce!One round knock out, King BattlecatFrank White B O S S -  fick deinen TrackPitbull, Redbull, Style wie auf H9mm, BMW MegarageI Luv Money Rec O-R-D, SODoppel N, Y, langer Schwanz, dicker Flow!Zeig mir deinen Text, wer von  uns flext?Schau in meine Augen: H-A-S-SIch hole meine Hunde die dich beißenSuchen, finden und dich zerreißen[Strophe II: Frank White]Meine Raps sind Touchdown, durchbrechen jede MauerFrank White, Gangsterrap, tackelt jeden deiner TracksPokerface, SonnenbrilleIch hab Speed, auch wenn ich chilleIch mach alles, was ich will, du hast keine WahlIch mach Feindesrap, feinen RapDu willst keinen Stress, du willst super High-Tec-TrackCokxxx, Nutten, Kohle, du bist immer ohne ActionIch steh jetzt auf alle Menschen, niemand kann mich battlenNiemand brauch mich deckenDellamok - du bist Chef, um dir zu dienenSiehst du, wie dein Partner flieht? Denn ich hole mir den SiegJeder Rapper fliegt und schreit:"Frank White, König zwischen Tag und Nacht"Du bist nicht am Start, yeah!
-[Chorus]Sonny Black, Frank White, kalter KriegLaden, zielen, schießen, SiegMit der Faust in dein Gesicht, Sonny Black, Frank WhiteSag, Nigga, burnSonny Black, Frank White, kalter KriegLaden, zielen, schießen, SiegMit der Faust in dein Gesicht, Sonny Black, Frank WhiteSag, Nigga, burn[Strophe III : Sonny Black (Bushido)]Du willst Baggy, ich LederjackeDu blond, ich KanackeSüd glüht - rot wie BlutGut lass uns reden . . . - HahSonny Black, braune AugenHigh-Tec, fick fansTempelhof, Orgasmus One, Bass sultan HengztRepresent Sex und Koks, Tanga und StringsDu bist so real? Ich King of KingsMir scheiß egal über was wollt ihr sprechen?Du willst ein Feature? Fick deine MutterNutten wie dich schick ich tief unter die ErdeFirst night wonder - King Sonny Black![Strophe IV : Frank White (Fler)]Frank White ist stonedDie Welt kackt auf deinen SoundIch mach alles: Action, lenzen, trage Springerstiefel!Niemals (?) Rap, lass uns treffen an der EckeFicke dich, man, jede Wette, - King of Kingz, Sonny Black!Ich bin einzel-cool, einzel-krass, Einzelgänger, Einzel-Kampfhund am Start, du glaubst du bist hart?Macho mit Dreitagebart alias David DiamonDu sagst ich bin Kleinkind? Schlampe mach dich peinlichIch bin aggressiv und killeSchau mir zu ich spreche, BitchWer will jetzt Kalter Krieg???Frank, mein Rap, WhiteDu hast 20 Gigabyte? Ich schlag in deine Fresse breit!Sag mir baby: Ich bin tight!Ich bin new-white-order!
-[Bridge ]Sonny Black - Frank White-[Chorus]Sonny Black, Frank White, kalter KriegLaden, zielen, schießen, SiegMit der Faust in dein Gesicht, Sonny Black, Frank WhiteSag, Nigga, burnSonny Black, Frank White, kalter KriegLaden, zielen, schießen, SiegMit der Faust in dein Gesicht, Sonny Black, Frank WhiteSag, Nigga, burn[Bridge : Sonny Black (Bushido)]Du bist geburnt!!![Bridge : Frank White (FLER)]Du bist am Arsch . . . denn:[Chorus]Sonny Black, Frank White, kalter KriegLaden, zielen, schießen, SiegMit der Faust in dein Gesicht, Sonny Black, Frank WhiteSag, Nigga, burnSonny Black, Frank White, kalter KriegLaden, zielen, schießen, SiegMit der Faust in dein Gesicht, Sonny Black, Frank WhiteSag, Nigga, burn
-[Outro : FLER]Ähh, ey Bushido, warteWas ist jetzt mit Outro???[Outro : Bushido]Nee, brauchen wir nicht, ne???[Outro : FLER]Nee, lass mal gehen . . . tschüss!</t>
+          <t>[Intro: Frank White (Fler)]
+Alter, lauf weg, man!
+Äh, Frank White und Sonny Black kommen
+Die wollen mich holen - die holen mich
+Wir werden alle sterben
+Wir sterben alle! Dellamok!
+(o)kay! Yeah! Yoa!
+[Strophe I : Sonny Black (Bushido)]
+Nike Airmax - Sonny Black Bounce
+Schreit meinen Namen: "Sonny King Black" - Bounce!
+One round knock out, King Battlecat
+Frank White B O S S - fick deinen Track
+Pitbull, Redbull, Style wie auf H
+9mm, BMW Megarage
+I Luv Money Rec O-R-D, SO
+Doppel N, Y, langer Schwanz, dicker Flow!
+Zeig mir deinen Text, wer von uns flext?
+Schau in meine Augen: H-A-S-S
+Ich hole meine Hunde die dich beißen
+Suchen, finden und dich zerreißen
+[Strophe II: Frank White]
+Meine Raps sind Touchdown, durchbrechen jede Mauer
+Frank White, Gangsterrap, tackelt jeden deiner Tracks
+Pokerface, Sonnenbrille
+Ich hab Speed, auch wenn ich chille
+Ich mach alles, was ich will, du hast keine Wahl
+Ich mach Feindesrap, feinen Rap
+Du willst keinen Stress, du willst super High-Tec-Track
+Cokxxx, Nutten, Kohle, du bist immer ohne Action
+Ich steh jetzt auf alle Menschen, niemand kann mich battlen
+Niemand brauch mich decken
+Dellamok - du bist Chef, um dir zu dienen
+Siehst du, wie dein Partner flieht? Denn ich hole mir den Sieg
+Jeder Rapper fliegt und schreit:
+"Frank White, König zwischen Tag und Nacht"
+Du bist nicht am Start, yeah!
+[Chorus]
+Sonny Black, Frank White, kalter Krieg
+Laden, zielen, schießen, Sieg
+Mit der Faust in dein Gesicht, Sonny Black, Frank White
+Sag, Nigga, burn
+Sonny Black, Frank White, kalter Krieg
+Laden, zielen, schießen, Sieg
+Mit der Faust in dein Gesicht, Sonny Black, Frank White
+Sag, Nigga, burn
+[Strophe III : Sonny Black (Bushido)]
+Du willst Baggy, ich Lederjacke
+Du blond, ich Kanacke
+Süd glüht - rot wie Blut
+Gut lass uns reden . . . - Hah
+Sonny Black, braune Augen
+High-Tec, fick fans
+Tempelhof, Orgasmus One, Bass sultan Hengzt
+Represent Sex und Koks, Tanga und Strings
+Du bist so real? Ich King of Kings
+Mir scheiß egal über was wollt ihr sprechen?
+Du willst ein Feature? Fick deine Mutter
+Nutten wie dich schick ich tief unter die Erde
+First night wonder - King Sonny Black!
+[Strophe IV : Frank White (Fler)]
+Frank White ist stoned
+Die Welt kackt auf deinen Sound
+Ich mach alles: Action, lenzen, trage Springerstiefel!
+Niemals (?) Rap, lass uns treffen an der Ecke
+Ficke dich, man, jede Wette, - King of Kingz, Sonny Black!
+Ich bin einzel-cool, einzel-krass, Einzelgänger, Einzel-
+Kampfhund am Start, du glaubst du bist hart?
+Macho mit Dreitagebart alias David Diamon
+Du sagst ich bin Kleinkind? Schlampe mach dich peinlich
+Ich bin aggressiv und kille
+Schau mir zu ich spreche, Bitch
+Wer will jetzt Kalter Krieg???
+Frank, mein Rap, White
+Du hast 20 Gigabyte? Ich schlag in deine Fresse breit!
+Sag mir baby: Ich bin tight!
+Ich bin new-white-order!
+[Bridge ]
+Sonny Black - Frank White+
+[Chorus]
+Sonny Black, Frank White, kalter Krieg
+Laden, zielen, schießen, Sieg
+Mit der Faust in dein Gesicht, Sonny Black, Frank White
+Sag, Nigga, burn
+Sonny Black, Frank White, kalter Krieg
+Laden, zielen, schießen, Sieg
+Mit der Faust in dein Gesicht, Sonny Black, Frank White
+Sag, Nigga, burn
+[Bridge : Sonny Black (Bushido)]
+Du bist geburnt!!!
+[Bridge : Frank White (FLER)]
+Du bist am Arsch . . . denn:
+[Chorus]
+Sonny Black, Frank White, kalter Krieg
+Laden, zielen, schießen, Sieg
+Mit der Faust in dein Gesicht, Sonny Black, Frank White
+Sag, Nigga, burn
+Sonny Black, Frank White, kalter Krieg
+Laden, zielen, schießen, Sieg
+Mit der Faust in dein Gesicht, Sonny Black, Frank White
+Sag, Nigga, burn
+[Outro : FLER]
+Ähh, ey Bushido, warte
+Was ist jetzt mit Outro???
+[Outro : Bushido]
+Nee, brauchen wir nicht, ne???
+[Outro : FLER]
+Nee, lass mal gehen . . . tschüss!</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -955,8 +1680,61 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Strophe I:][D-Bo]Ich bin immernoch der Meinung, man sollte Frau'n akzeptier'nUnd ihnen, die Chance geben sich selber zu blamierenSie wollen Emanzipation und ihre Stärke demonstrierenIch werd' sie weiter abservier'n, mit meinem Lächeln verwirrnSie bieten mit dir stirn, ich biete meinen schwanzSie denken ich will hochzeit doch es gibt nur einen tanzKomm baby, komm baby, dreh rum babyDu denkst du wärst heiß doch ich nenne sowas dumm babyIch gebe zu, du machst mich schon anDoch was soll ich machen, schließlich bin ich ein mannDann fällt mir ein warum du überhaupt am tanzen bistDer beat kommt vom hok, der typ der emanzen disstDu guckst mich an als hättest du's ja eh gewusstVesteckst aber nur dass du länger überlegen musstIch guck dich an, runzel mit der strinLache innerlich und du denkst: er hat mich gernIch seh dir in die augen und sehe nichtsDu laberst mich an ich vertehe nichtsDu findest mich süß, bei mir regt sich nichtsDu redest vom kuscheln, ich denk an sexCool aber hässlich oder hübsch aber dämlich oder schlau aber fett oder schlank aber dreckigIst die eine seite topp ist die eine seite schrecklichAlso kopf runter leck mich, kein bock? dann verpiss dich[Chorus:][x4]Keine kriege wegen einer bitchDer flow ist männlich nutteAlso scheiß auf dich, sonny blackMit dem schwanz in der hand, du bist nichtsÖffnest nur aus liebe deinen gottverdammten schlitz
-[Strophe II:][Bushido]Ich hab gehört ich soll die fraun akzeptiernIch bin ein mann und hab nichts zu verlierenDu willst respekt, halt den mund und hör zuDein silikon gehört mir und meiner crewNur weil ich rap bin bläst du meinen schwanzDoch wieso, weil du ohne ein mann nichts kannstDu willst von uns das wir dich auf händen tragenMit der rechten werd ich wichsen, mit der linken dich schlagenIch gebe zu das eine frau auch manchmal denktDoch sieh ein das ein echter mann wie ich dir nichts schenktDu hast verkackt und ich will das du weißtDas jeder der so ist wie ich auf dich scheißtSchmink deine nase uns push deine tittenSchwitz bei der fitness und spritz deine lippenDu bist getunt und was bist du jetzt wert?Ich bin ein typ der den nutten nichts erklärtFick meine gang und du fickst deine ehreEin mann ist immer straight ohne was, wenn und wäreWas hast du mir außer ficken zu bieten?Glaubst du ich würde dich für so etwas lieben?Ich hab geschäfte und kohle in massenNutten die mich lieben und nutten die mich hassenWas wollt ihr machen, delamok, sonny blackNutte bounce zu dem beat denn du weißt du bist dreck
+          <t>[Strophe I:][D-Bo]
+Ich bin immernoch der Meinung, man sollte Frau'n akzeptier'n
+Und ihnen, die Chance geben sich selber zu blamieren
+Sie wollen Emanzipation und ihre Stärke demonstrieren
+Ich werd' sie weiter abservier'n, mit meinem Lächeln verwirrn
+Sie bieten mit dir stirn, ich biete meinen schwanz
+Sie denken ich will hochzeit doch es gibt nur einen tanz
+Komm baby, komm baby, dreh rum baby
+Du denkst du wärst heiß doch ich nenne sowas dumm baby
+Ich gebe zu, du machst mich schon an
+Doch was soll ich machen, schließlich bin ich ein mann
+Dann fällt mir ein warum du überhaupt am tanzen bist
+Der beat kommt vom hok, der typ der emanzen disst
+Du guckst mich an als hättest du's ja eh gewusst
+Vesteckst aber nur dass du länger überlegen musst
+Ich guck dich an, runzel mit der strin
+Lache innerlich und du denkst: er hat mich gern
+Ich seh dir in die augen und sehe nichts
+Du laberst mich an ich vertehe nichts
+Du findest mich süß, bei mir regt sich nichts
+Du redest vom kuscheln, ich denk an sex
+Cool aber hässlich oder hübsch aber dämlich oder schlau aber fett oder schlank aber dreckig
+Ist die eine seite topp ist die eine seite schrecklich
+Also kopf runter leck mich, kein bock? dann verpiss dich
+[Chorus:][x4]
+Keine kriege wegen einer bitch
+Der flow ist männlich nutte
+Also scheiß auf dich, sonny black
+Mit dem schwanz in der hand, du bist nichts
+Öffnest nur aus liebe deinen gottverdammten schlitz
+[Strophe II:][Bushido]
+Ich hab gehört ich soll die fraun akzeptiern
+Ich bin ein mann und hab nichts zu verlieren
+Du willst respekt, halt den mund und hör zu
+Dein silikon gehört mir und meiner crew
+Nur weil ich rap bin bläst du meinen schwanz
+Doch wieso, weil du ohne ein mann nichts kannst
+Du willst von uns das wir dich auf händen tragen
+Mit der rechten werd ich wichsen, mit der linken dich schlagen
+Ich gebe zu das eine frau auch manchmal denkt
+Doch sieh ein das ein echter mann wie ich dir nichts schenkt
+Du hast verkackt und ich will das du weißt
+Das jeder der so ist wie ich auf dich scheißt
+Schmink deine nase uns push deine titten
+Schwitz bei der fitness und spritz deine lippen
+Du bist getunt und was bist du jetzt wert?
+Ich bin ein typ der den nutten nichts erklärt
+Fick meine gang und du fickst deine ehre
+Ein mann ist immer straight ohne was, wenn und wäre
+Was hast du mir außer ficken zu bieten?
+Glaubst du ich würde dich für so etwas lieben?
+Ich hab geschäfte und kohle in massen
+Nutten die mich lieben und nutten die mich hassen
+Was wollt ihr machen, delamok, sonny black
+Nutte bounce zu dem beat denn du weißt du bist dreck
 [Chorus][x4]</t>
         </is>
       </c>
@@ -1001,8 +1779,36 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Strophe I :]Ich bin der König ich töte dichWarum redest du von Sachen von denen du nichts verstehst (ha)Ich hole tief Luft, atme aus und vereiß dich (ha)Fick auf deine Freunde, komm Nutte beiß mich (uh)Du bist ein Hund und ich fick dich an die Leine (uh)Komm mit deiner Mama ich ficke euch beideI Luv Money Recor-d-s, hab ich irgendwas gehört, willst du Stress?Was hast du Spasst ausser Angst?Runter mit dem Rock, zeig mir jetz was du kannstUnd jetz tanz, oder battle gegen mich und meine crew, wer du?Sonny ?Bitch? und ich ficke deine SippeScheiss auf die Regler, ein wort von mir und ich töte dein PegelBMW, Gang-Bang und der Rest hängt am GalgenKing Of Kingz (Of Kingz Of Kingz) in shalah, wenn er will werd ich siegenDoch das Schwert will das Blut meiner FeindeNimm dir das Gestern, die Zukunft is meineDeine Kerze ist erloschen fühlst du den Schmerz, er kommt an wie ein KussIch töte, ficke, nur weil ich mussWie kann ich auch anders, Blut heisst lebenLieben sterben kämpfen nehmen[Chorus :][x8]Ich Schmecke angst, lecke Schweiss von der StirnSchau mein Gesicht, es ist rotIch will mehr ich will BlutLauf nich weg, bleib doch hier. komm und burnGuter Mann, ich weiss dir hä sagsHast du Mut?
-[Outro :][x3]Hast du Mut?</t>
+          <t>[Strophe I :]
+Ich bin der König ich töte dich
+Warum redest du von Sachen von denen du nichts verstehst (ha)
+Ich hole tief Luft, atme aus und vereiß dich (ha)
+Fick auf deine Freunde, komm Nutte beiß mich (uh)
+Du bist ein Hund und ich fick dich an die Leine (uh)
+Komm mit deiner Mama ich ficke euch beide
+I Luv Money Recor-d-s, hab ich irgendwas gehört, willst du Stress?
+Was hast du Spasst ausser Angst?
+Runter mit dem Rock, zeig mir jetz was du kannst
+Und jetz tanz, oder battle gegen mich und meine crew, wer du?
+Sonny ?Bitch? und ich ficke deine Sippe
+Scheiss auf die Regler, ein wort von mir und ich töte dein Pegel
+BMW, Gang-Bang und der Rest hängt am Galgen
+King Of Kingz (Of Kingz Of Kingz) in shalah, wenn er will werd ich siegen
+Doch das Schwert will das Blut meiner Feinde
+Nimm dir das Gestern, die Zukunft is meine
+Deine Kerze ist erloschen fühlst du den Schmerz, er kommt an wie ein Kuss
+Ich töte, ficke, nur weil ich muss
+Wie kann ich auch anders, Blut heisst leben
+Lieben sterben kämpfen nehmen
+[Chorus :][x8]
+Ich Schmecke angst, lecke Schweiss von der Stirn
+Schau mein Gesicht, es ist rot
+Ich will mehr ich will Blut
+Lauf nich weg, bleib doch hier. komm und burn
+Guter Mann, ich weiss dir hä sags
+Hast du Mut?
+[Outro :][x3]
+Hast du Mut?</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1046,8 +1852,57 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Intro:][Bushido]Ansonsten, wenn ich jemanden vergessen habe, dann scheiß ich draufSido, B-TightHört Downstairs Tapes, ihr Nutten und hört auf die Scheiße zu kopieren, ja?Ansonsten denk ich mir was aus, tschau[Strophe I:][Fler]Ich will nur dein bestes, du bist schwanzUnd ich krieg alles was du hastMein bester Rap für dich, du kleine SchlampeSiehst du wie ich auf dich kackeHör dir zu und lach dich ausDein Ego wird von mir missbraucht, yeahLaber Scheiß, ich bin heißDie Fakten klar wie schwarz auf weißDu bist arschgefickt und glaubst dass jemand an dich denkt?Falsch gedacht, lass uns treffen und es krachtFrank White legt dich flach und du musst wein'Ich brech dir deine Beine und mach morgen mit dir weiterJetzt ist alles scheiße kommt davon viel zu dreistHälst dich für den größten deine Freundin hat die Hose anIn Südberlin bist du kein MannZeig mir was du kannst ich lach dich ausFrank White fickt deinen Arsch bei Geld hört Freundschaft aufSomit auch dein LebenShit, du bist gefickt man
-[Chorus:][x2]Wer nicht hören will muss fühlenUnd manche müssen blutenAb heute bist du OpferDu warst mal BerlinerHör mal!Wer gibt Dir Respekt?Niemand!Du bist weniger als Dreck[Strophe II:][Bushido]Ich hänge an der Decke wie 'ne Spinne, du SchwuchtelDein Pint wächst nach innen, du bist weiblich, du NutteWas laberst du mich voll und rennst dann vor mir weg?Opfer bleibt Opfer, der Chef Sonny BlackDu redest so als hättest du die Weisheit gefressenSei cool am Telefon, auf der Straße wirst du zerbrechenDu hältst mir vor ich hätte dich nicht unterstütztSpar dir deine Worte, weil dein Deep dir nichts nütztIch höre du hast Geld, warum verarschst du meine Mama?Ich frage dich warum und was ich höre ist nur BlablaDu weißt was passiert hier geht's um meine FamilieTrau dich noch einmal, ich schwöre ich töte dichIch weiß, dass du weißt denn du weißt wie ich binNicht ohne Grund ruf ich: Sonny King BlackWas denkst du Hund wer du bist?Wir beide sind fertig scheiß auf dich Arschloch
+          <t>[Intro:][Bushido]
+Ansonsten, wenn ich jemanden vergessen habe, dann scheiß ich drauf
+Sido, B-Tight
+Hört Downstairs Tapes, ihr Nutten und hört auf die Scheiße zu kopieren, ja?
+Ansonsten denk ich mir was aus, tschau
+[Strophe I:][Fler]
+Ich will nur dein bestes, du bist schwanz
+Und ich krieg alles was du hast
+Mein bester Rap für dich, du kleine Schlampe
+Siehst du wie ich auf dich kacke
+Hör dir zu und lach dich aus
+Dein Ego wird von mir missbraucht, yeah
+Laber Scheiß, ich bin heiß
+Die Fakten klar wie schwarz auf weiß
+Du bist arschgefickt und glaubst dass jemand an dich denkt?
+Falsch gedacht, lass uns treffen und es kracht
+Frank White legt dich flach und du musst wein'
+Ich brech dir deine Beine und mach morgen mit dir weiter
+Jetzt ist alles scheiße kommt davon viel zu dreist
+Hälst dich für den größten deine Freundin hat die Hose an
+In Südberlin bist du kein Mann
+Zeig mir was du kannst ich lach dich aus
+Frank White fickt deinen Arsch bei Geld hört Freundschaft auf
+Somit auch dein Leben
+Shit, du bist gefickt man
+[Chorus:][x2]
+Wer nicht hören will muss fühlen
+Und manche müssen bluten
+Ab heute bist du Opfer
+Du warst mal Berliner
+Hör mal!
+Wer gibt Dir Respekt?
+Niemand!
+Du bist weniger als Dreck
+[Strophe II:][Bushido]
+Ich hänge an der Decke wie 'ne Spinne, du Schwuchtel
+Dein Pint wächst nach innen, du bist weiblich, du Nutte
+Was laberst du mich voll und rennst dann vor mir weg?
+Opfer bleibt Opfer, der Chef Sonny Black
+Du redest so als hättest du die Weisheit gefressen
+Sei cool am Telefon, auf der Straße wirst du zerbrechen
+Du hältst mir vor ich hätte dich nicht unterstützt
+Spar dir deine Worte, weil dein Deep dir nichts nützt
+Ich höre du hast Geld, warum verarschst du meine Mama?
+Ich frage dich warum und was ich höre ist nur Blabla
+Du weißt was passiert hier geht's um meine Familie
+Trau dich noch einmal, ich schwöre ich töte dich
+Ich weiß, dass du weißt denn du weißt wie ich bin
+Nicht ohne Grund ruf ich: Sonny King Black
+Was denkst du Hund wer du bist?
+Wir beide sind fertig scheiß auf dich Arschloch
 [Chorus][x2]</t>
         </is>
       </c>
@@ -1092,9 +1947,69 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Intro :]"Sag mir, weisst du, was es ist, wenn du Nachts in den Himmel schaust und duPlötzlich Tränen in den Augen hast?Woran liegt es? Sind es deine Gedanken? Das was du verloren hast? Das was duVergessen hast? Oder ist es der SternenstaubDer die Tränen in deinen Augen verursacht?"[Strophe I:]Sternenstaub, alte vergangene ZeitenFlügel die mich tragen, die die mich begleitenDie, die mich vergessen. Wer wird sich Erinnern?Schatten die ich sehe, wie die der kleiner KinderWas bleibt für immer, wie lang wirst du noch verschweigen?Gesichter die du fühlst, ohne dass sie sich dir zeigenGlaub mir nicht, doch ich weiss, dass er sich verstecktManchmal siehst du Hörner, wie er sich die Lippen lecktMit jeden Schritt, den du gehst. Geht ein Schritt auf ihn zuFrag nicht warum, ich bin ich und nicht duGlaubst du im Ernst, wir sind da um zu bleiben?Wenn du jemals liebst, wirst du gleichzeitig leiden[Chorus:][x2]Ist es Traurigkeit, die mir Tränen in die Augen treibt?Ist es Liebe, ist es Hass? Ist es Sternenstaub?Ist es wahr, dass dir am Ende nur der Glauben bleibt?Wenn der Glauben bleibt, bitte was ist dann Sternenstaub?
-[Strophe II:]Wenn Tränen fallen, und sich Blicke nicht mehr treffenWer soll dann noch hoffen und in schlechten Zeiten lächeln?Die Illusion ist nur der Schutz vor deiner WahrheitSchaust du dahinter, wirst du verrückt vor lauter KlarheitLieber verrückt, als betäubt von einer LügeDie Welt ist wie ein Schachbrett, das Leben deine ZügeZiehe - Überlege - König oder Läufer?Lass dir Zeit, oder du gehst unter voller EiferAchte auf den Wind, und denke an deine SchwächenSchütz sie mit der Stärke, oder du wirst dran zerbrechenLauf los, hol dir alles von heute auf morgenDeinen Namen, deinen Fame, und all die anderen Sorgen[Chorus][x2][Bridge :][Sonny Black und Frank White ]FW:Was, was soll das bedeuten, man? Sternenstaub? Was meinst du damit, alter?SB:Was glaubst du, was es is man?FW:Ey , kein Plan altaSB:Es ist alles, was du nicht erklären kannstWeist du, wenn du irgendwas mal die Schuld geben willstDann schiebs auf deinen Sternenstaub
-[Strophe III:]Wenn du fällst, und der Abgrund dich verschlingtWenn du alles gibst, und du trotzdem nicht gewinnstWenn du blind vertraust, ohne eigentlich zu wissenWoher kommt die Stimme, und das schlechte gewissenWenn Schlangen küssen, ohne dass sie Lippen habenWenn man dir alles nimmt, ohne Bitte zu sagenDu kannst versuchen, ohne es wirklich zu schaffenDinge, die wir sehen, ohne sie wirklich zu raffenWenn Leute mich dissen, ohne mich zu verstehenIst es Sternenstaub - der Kummer in meinen LebenWenn es so ist, werd ich weiterhin in den Himmel schaunWeil ich an Engel glaube und wir auf Gott vertraun[Chorus][x4]</t>
+          <t>[Intro :]
+"Sag mir, weisst du, was es ist, wenn du Nachts in den Himmel schaust und du
+Plötzlich Tränen in den Augen hast?
+Woran liegt es? Sind es deine Gedanken? Das was du verloren hast? Das was du
+Vergessen hast? Oder ist es der Sternenstaub
+Der die Tränen in deinen Augen verursacht?"
+[Strophe I:]
+Sternenstaub, alte vergangene Zeiten
+Flügel die mich tragen, die die mich begleiten
+Die, die mich vergessen. Wer wird sich Erinnern?
+Schatten die ich sehe, wie die der kleiner Kinder
+Was bleibt für immer, wie lang wirst du noch verschweigen?
+Gesichter die du fühlst, ohne dass sie sich dir zeigen
+Glaub mir nicht, doch ich weiss, dass er sich versteckt
+Manchmal siehst du Hörner, wie er sich die Lippen leckt
+Mit jeden Schritt, den du gehst. Geht ein Schritt auf ihn zu
+Frag nicht warum, ich bin ich und nicht du
+Glaubst du im Ernst, wir sind da um zu bleiben?
+Wenn du jemals liebst, wirst du gleichzeitig leiden
+[Chorus:][x2]
+Ist es Traurigkeit, die mir Tränen in die Augen treibt?
+Ist es Liebe, ist es Hass? Ist es Sternenstaub?
+Ist es wahr, dass dir am Ende nur der Glauben bleibt?
+Wenn der Glauben bleibt, bitte was ist dann Sternenstaub?
+[Strophe II:]
+Wenn Tränen fallen, und sich Blicke nicht mehr treffen
+Wer soll dann noch hoffen und in schlechten Zeiten lächeln?
+Die Illusion ist nur der Schutz vor deiner Wahrheit
+Schaust du dahinter, wirst du verrückt vor lauter Klarheit
+Lieber verrückt, als betäubt von einer Lüge
+Die Welt ist wie ein Schachbrett, das Leben deine Züge
+Ziehe - Überlege - König oder Läufer?
+Lass dir Zeit, oder du gehst unter voller Eifer
+Achte auf den Wind, und denke an deine Schwächen
+Schütz sie mit der Stärke, oder du wirst dran zerbrechen
+Lauf los, hol dir alles von heute auf morgen
+Deinen Namen, deinen Fame, und all die anderen Sorgen
+[Chorus][x2]
+[Bridge :][Sonny Black und Frank White ]
+FW:
+Was, was soll das bedeuten, man? Sternenstaub? Was meinst du damit, alter?
+SB:
+Was glaubst du, was es is man?
+FW:
+Ey , kein Plan alta
+SB:
+Es ist alles, was du nicht erklären kannst
+Weist du, wenn du irgendwas mal die Schuld geben willst
+Dann schiebs auf deinen Sternenstaub
+[Strophe III:]
+Wenn du fällst, und der Abgrund dich verschlingt
+Wenn du alles gibst, und du trotzdem nicht gewinnst
+Wenn du blind vertraust, ohne eigentlich zu wissen
+Woher kommt die Stimme, und das schlechte gewissen
+Wenn Schlangen küssen, ohne dass sie Lippen haben
+Wenn man dir alles nimmt, ohne Bitte zu sagen
+Du kannst versuchen, ohne es wirklich zu schaffen
+Dinge, die wir sehen, ohne sie wirklich zu raffen
+Wenn Leute mich dissen, ohne mich zu verstehen
+Ist es Sternenstaub - der Kummer in meinen Leben
+Wenn es so ist, werd ich weiterhin in den Himmel schaun
+Weil ich an Engel glaube und wir auf Gott vertraun
+[Chorus][x4]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
